--- a/ig/main/CodeSystem-TRE-R313-CISP2.xlsx
+++ b/ig/main/CodeSystem-TRE-R313-CISP2.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-05-28T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
